--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Downloads\Conagra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A102727-D28E-4DBF-B540-C04FE299E4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A23819-0AE9-45EF-B8AB-4FA9FDF11AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8CE389FC-FFA3-4179-AC01-795CF30E2717}"/>
   </bookViews>
@@ -767,12 +767,12 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -867,28 +867,28 @@
         <v>14</v>
       </c>
       <c r="B4">
+        <v>3.93</v>
+      </c>
+      <c r="C4">
+        <v>3.34</v>
+      </c>
+      <c r="D4">
+        <v>2.98</v>
+      </c>
+      <c r="E4">
+        <v>2.79</v>
+      </c>
+      <c r="F4">
+        <v>1.92</v>
+      </c>
+      <c r="G4">
         <v>0.84</v>
-      </c>
-      <c r="C4">
-        <v>1.92</v>
-      </c>
-      <c r="D4">
-        <v>2.79</v>
-      </c>
-      <c r="E4">
-        <v>2.98</v>
-      </c>
-      <c r="F4">
-        <v>3.34</v>
-      </c>
-      <c r="G4">
-        <v>3.93</v>
       </c>
       <c r="H4">
         <v>9.89</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -925,28 +925,28 @@
         <v>15</v>
       </c>
       <c r="B6">
+        <v>3.48</v>
+      </c>
+      <c r="C6">
+        <v>3.13</v>
+      </c>
+      <c r="D6">
+        <v>2.8</v>
+      </c>
+      <c r="E6">
+        <v>2.6</v>
+      </c>
+      <c r="F6">
+        <v>2.04</v>
+      </c>
+      <c r="G6">
         <v>0.28000000000000003</v>
-      </c>
-      <c r="C6">
-        <v>2.04</v>
-      </c>
-      <c r="D6">
-        <v>2.6</v>
-      </c>
-      <c r="E6">
-        <v>2.8</v>
-      </c>
-      <c r="F6">
-        <v>3.13</v>
-      </c>
-      <c r="G6">
-        <v>3.48</v>
       </c>
       <c r="H6">
         <v>9.36</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="C7">
         <v>2.34</v>
@@ -983,28 +983,28 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>1.1399999999999999</v>
+        <v>4.33</v>
       </c>
       <c r="C8">
-        <v>1.81</v>
+        <v>3.53</v>
       </c>
       <c r="D8">
         <v>3.3</v>
       </c>
       <c r="E8">
-        <v>3.53</v>
+        <v>1.81</v>
       </c>
       <c r="F8">
-        <v>4.12</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G8">
-        <v>4.33</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H8">
         <v>9.11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1041,28 +1041,28 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.56000000000000005</v>
+        <v>3.67</v>
       </c>
       <c r="C10">
-        <v>1.71</v>
+        <v>2.81</v>
       </c>
       <c r="D10">
         <v>2.31</v>
       </c>
       <c r="E10">
-        <v>2.81</v>
+        <v>1.71</v>
       </c>
       <c r="F10">
-        <v>3.27</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G10">
-        <v>3.67</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H10">
         <v>8.7799999999999994</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1099,28 +1099,28 @@
         <v>21</v>
       </c>
       <c r="B12">
+        <v>2.81</v>
+      </c>
+      <c r="C12">
+        <v>2.83</v>
+      </c>
+      <c r="D12">
+        <v>1.98</v>
+      </c>
+      <c r="E12">
+        <v>1.65</v>
+      </c>
+      <c r="F12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G12">
         <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D12">
-        <v>1.65</v>
-      </c>
-      <c r="E12">
-        <v>1.98</v>
-      </c>
-      <c r="F12">
-        <v>2.83</v>
-      </c>
-      <c r="G12">
-        <v>2.81</v>
       </c>
       <c r="H12">
         <v>8.19</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1146,7 +1146,7 @@
         <v>6.47</v>
       </c>
       <c r="H13">
-        <v>8.19</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1157,28 +1157,28 @@
         <v>23</v>
       </c>
       <c r="B14">
+        <v>4.2</v>
+      </c>
+      <c r="C14">
+        <v>2.35</v>
+      </c>
+      <c r="D14">
+        <v>2.15</v>
+      </c>
+      <c r="E14">
+        <v>1.98</v>
+      </c>
+      <c r="F14">
+        <v>1.47</v>
+      </c>
+      <c r="G14">
         <v>0.42</v>
-      </c>
-      <c r="C14">
-        <v>1.47</v>
-      </c>
-      <c r="D14">
-        <v>1.98</v>
-      </c>
-      <c r="E14">
-        <v>2.15</v>
-      </c>
-      <c r="F14">
-        <v>2.35</v>
-      </c>
-      <c r="G14">
-        <v>4.2</v>
       </c>
       <c r="H14">
         <v>8.18</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1215,28 +1215,28 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>2.68</v>
+        <v>15.5</v>
       </c>
       <c r="C16">
-        <v>3.11</v>
+        <v>14.17</v>
       </c>
       <c r="D16">
         <v>12.8</v>
       </c>
       <c r="E16">
-        <v>14.84</v>
+        <v>3.11</v>
       </c>
       <c r="F16">
-        <v>14.17</v>
+        <v>2.68</v>
       </c>
       <c r="G16">
-        <v>15.5</v>
+        <v>2.67</v>
       </c>
       <c r="H16">
-        <v>8.14</v>
+        <v>8.15</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1273,28 +1273,28 @@
         <v>27</v>
       </c>
       <c r="B18">
+        <v>3.71</v>
+      </c>
+      <c r="C18">
+        <v>3.17</v>
+      </c>
+      <c r="D18">
+        <v>2.83</v>
+      </c>
+      <c r="E18">
+        <v>2.73</v>
+      </c>
+      <c r="F18">
+        <v>1.9</v>
+      </c>
+      <c r="G18">
         <v>0.73</v>
-      </c>
-      <c r="C18">
-        <v>1.9</v>
-      </c>
-      <c r="D18">
-        <v>2.73</v>
-      </c>
-      <c r="E18">
-        <v>2.83</v>
-      </c>
-      <c r="F18">
-        <v>3.17</v>
-      </c>
-      <c r="G18">
-        <v>3.71</v>
       </c>
       <c r="H18">
         <v>8.06</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1331,28 +1331,28 @@
         <v>29</v>
       </c>
       <c r="B20">
+        <v>3.71</v>
+      </c>
+      <c r="C20">
+        <v>3.41</v>
+      </c>
+      <c r="D20">
+        <v>2.65</v>
+      </c>
+      <c r="E20">
+        <v>2.02</v>
+      </c>
+      <c r="F20">
+        <v>1.56</v>
+      </c>
+      <c r="G20">
         <v>0.41</v>
-      </c>
-      <c r="C20">
-        <v>1.56</v>
-      </c>
-      <c r="D20">
-        <v>2.02</v>
-      </c>
-      <c r="E20">
-        <v>2.65</v>
-      </c>
-      <c r="F20">
-        <v>3.41</v>
-      </c>
-      <c r="G20">
-        <v>3.71</v>
       </c>
       <c r="H20">
         <v>7.96</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1389,28 +1389,28 @@
         <v>31</v>
       </c>
       <c r="B22">
+        <v>3.1</v>
+      </c>
+      <c r="C22">
+        <v>3.5</v>
+      </c>
+      <c r="D22">
+        <v>3.9</v>
+      </c>
+      <c r="E22">
+        <v>4.3</v>
+      </c>
+      <c r="F22">
+        <v>4.8</v>
+      </c>
+      <c r="G22">
         <v>5.2</v>
-      </c>
-      <c r="C22">
-        <v>4.8</v>
-      </c>
-      <c r="D22">
-        <v>4.3</v>
-      </c>
-      <c r="E22">
-        <v>3.9</v>
-      </c>
-      <c r="F22">
-        <v>3.5</v>
-      </c>
-      <c r="G22">
-        <v>3.1</v>
       </c>
       <c r="H22">
         <v>9.15</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1418,28 +1418,28 @@
         <v>32</v>
       </c>
       <c r="B23">
+        <v>3.8</v>
+      </c>
+      <c r="C23">
+        <v>1.9</v>
+      </c>
+      <c r="D23">
+        <v>4.2</v>
+      </c>
+      <c r="E23">
+        <v>2.1</v>
+      </c>
+      <c r="F23">
+        <v>3.5</v>
+      </c>
+      <c r="G23">
         <v>0.8</v>
-      </c>
-      <c r="C23">
-        <v>3.5</v>
-      </c>
-      <c r="D23">
-        <v>2.1</v>
-      </c>
-      <c r="E23">
-        <v>4.2</v>
-      </c>
-      <c r="F23">
-        <v>1.9</v>
-      </c>
-      <c r="G23">
-        <v>3.8</v>
       </c>
       <c r="H23">
         <v>8.76</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1450,16 +1450,16 @@
         <v>1.5</v>
       </c>
       <c r="C24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D24">
         <v>1.8</v>
       </c>
-      <c r="D24">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="E24">
+        <v>3.7</v>
+      </c>
+      <c r="F24">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="F24">
-        <v>3.7</v>
       </c>
       <c r="G24">
         <v>2.9</v>
@@ -1476,28 +1476,28 @@
         <v>34</v>
       </c>
       <c r="B25">
+        <v>2.4</v>
+      </c>
+      <c r="C25">
+        <v>2.1</v>
+      </c>
+      <c r="D25">
+        <v>1.8</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <v>1.2</v>
+      </c>
+      <c r="G25">
         <v>0.9</v>
-      </c>
-      <c r="C25">
-        <v>1.2</v>
-      </c>
-      <c r="D25">
-        <v>1.5</v>
-      </c>
-      <c r="E25">
-        <v>1.8</v>
-      </c>
-      <c r="F25">
-        <v>2.1</v>
-      </c>
-      <c r="G25">
-        <v>2.4</v>
       </c>
       <c r="H25">
         <v>7.88</v>
       </c>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1505,28 +1505,28 @@
         <v>35</v>
       </c>
       <c r="B26">
+        <v>1.2</v>
+      </c>
+      <c r="C26">
+        <v>1.6</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2.4</v>
+      </c>
+      <c r="F26">
+        <v>2.8</v>
+      </c>
+      <c r="G26">
         <v>3.2</v>
-      </c>
-      <c r="C26">
-        <v>2.8</v>
-      </c>
-      <c r="D26">
-        <v>2.4</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>1.6</v>
-      </c>
-      <c r="G26">
-        <v>1.2</v>
       </c>
       <c r="H26">
         <v>9.0299999999999994</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1534,28 +1534,28 @@
         <v>36</v>
       </c>
       <c r="B27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C27">
+        <v>3.3</v>
+      </c>
+      <c r="D27">
+        <v>5.5</v>
+      </c>
+      <c r="E27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C27">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D27">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E27">
-        <v>3.3</v>
-      </c>
-      <c r="F27">
-        <v>5.5</v>
-      </c>
       <c r="G27">
-        <v>4.5999999999999996</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H27">
         <v>8.4499999999999993</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1592,28 +1592,28 @@
         <v>38</v>
       </c>
       <c r="B29">
+        <v>3.5</v>
+      </c>
+      <c r="C29">
+        <v>3.3</v>
+      </c>
+      <c r="D29">
+        <v>3.1</v>
+      </c>
+      <c r="E29">
+        <v>2.9</v>
+      </c>
+      <c r="F29">
+        <v>2.7</v>
+      </c>
+      <c r="G29">
         <v>2.5</v>
-      </c>
-      <c r="C29">
-        <v>2.7</v>
-      </c>
-      <c r="D29">
-        <v>2.9</v>
-      </c>
-      <c r="E29">
-        <v>3.1</v>
-      </c>
-      <c r="F29">
-        <v>3.3</v>
-      </c>
-      <c r="G29">
-        <v>3.5</v>
       </c>
       <c r="H29">
         <v>8.73</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1650,28 +1650,28 @@
         <v>40</v>
       </c>
       <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>0.5</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>16</v>
       </c>
       <c r="H31">
         <v>8.2100000000000009</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1679,28 +1679,28 @@
         <v>41</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1.7</v>
+      </c>
+      <c r="D32">
+        <v>2.4</v>
+      </c>
+      <c r="E32">
+        <v>3.1</v>
+      </c>
+      <c r="F32">
+        <v>3.8</v>
+      </c>
+      <c r="G32">
         <v>4.5</v>
-      </c>
-      <c r="C32">
-        <v>3.8</v>
-      </c>
-      <c r="D32">
-        <v>3.1</v>
-      </c>
-      <c r="E32">
-        <v>2.4</v>
-      </c>
-      <c r="F32">
-        <v>1.7</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
       </c>
       <c r="H32">
         <v>8.8699999999999992</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1708,28 +1708,28 @@
         <v>42</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1.4</v>
+      </c>
+      <c r="D33">
+        <v>1.8</v>
+      </c>
+      <c r="E33">
+        <v>1.2</v>
+      </c>
+      <c r="F33">
+        <v>1.5</v>
+      </c>
+      <c r="G33">
         <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1.5</v>
-      </c>
-      <c r="D33">
-        <v>1.2</v>
-      </c>
-      <c r="E33">
-        <v>1.8</v>
-      </c>
-      <c r="F33">
-        <v>1.4</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
       </c>
       <c r="H33">
         <v>7.76</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1766,28 +1766,28 @@
         <v>44</v>
       </c>
       <c r="B35">
+        <v>14.4</v>
+      </c>
+      <c r="C35">
+        <v>7.2</v>
+      </c>
+      <c r="D35">
+        <v>3.6</v>
+      </c>
+      <c r="E35">
+        <v>1.8</v>
+      </c>
+      <c r="F35">
+        <v>0.9</v>
+      </c>
+      <c r="G35">
         <v>0.3</v>
-      </c>
-      <c r="C35">
-        <v>0.9</v>
-      </c>
-      <c r="D35">
-        <v>1.8</v>
-      </c>
-      <c r="E35">
-        <v>3.6</v>
-      </c>
-      <c r="F35">
-        <v>7.2</v>
-      </c>
-      <c r="G35">
-        <v>14.4</v>
       </c>
       <c r="H35">
         <v>7.98</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1798,16 +1798,16 @@
         <v>3</v>
       </c>
       <c r="C36">
+        <v>3.5</v>
+      </c>
+      <c r="D36">
         <v>2.5</v>
       </c>
-      <c r="D36">
-        <v>3.5</v>
-      </c>
       <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
         <v>3</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
       </c>
       <c r="G36">
         <v>3.5</v>
@@ -1824,22 +1824,22 @@
         <v>46</v>
       </c>
       <c r="B37">
+        <v>1.7</v>
+      </c>
+      <c r="C37">
+        <v>2.1</v>
+      </c>
+      <c r="D37">
+        <v>1.4</v>
+      </c>
+      <c r="E37">
+        <v>1.8</v>
+      </c>
+      <c r="F37">
+        <v>1.2</v>
+      </c>
+      <c r="G37">
         <v>1.5</v>
-      </c>
-      <c r="C37">
-        <v>1.2</v>
-      </c>
-      <c r="D37">
-        <v>1.8</v>
-      </c>
-      <c r="E37">
-        <v>1.4</v>
-      </c>
-      <c r="F37">
-        <v>2.1</v>
-      </c>
-      <c r="G37">
-        <v>1.7</v>
       </c>
       <c r="H37">
         <v>8.1199999999999992</v>
@@ -1882,28 +1882,28 @@
         <v>48</v>
       </c>
       <c r="B39">
+        <v>2.4</v>
+      </c>
+      <c r="C39">
+        <v>0.2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0.4</v>
+      </c>
+      <c r="F39">
+        <v>1.6</v>
+      </c>
+      <c r="G39">
         <v>0.8</v>
-      </c>
-      <c r="C39">
-        <v>1.6</v>
-      </c>
-      <c r="D39">
-        <v>0.4</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>0.2</v>
-      </c>
-      <c r="G39">
-        <v>2.4</v>
       </c>
       <c r="H39">
         <v>7.93</v>
       </c>
       <c r="I39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1940,28 +1940,28 @@
         <v>50</v>
       </c>
       <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3.6</v>
+      </c>
+      <c r="D41">
+        <v>1.8</v>
+      </c>
+      <c r="E41">
+        <v>2.4</v>
+      </c>
+      <c r="F41">
+        <v>1.2</v>
+      </c>
+      <c r="G41">
         <v>0.6</v>
-      </c>
-      <c r="C41">
-        <v>1.2</v>
-      </c>
-      <c r="D41">
-        <v>2.4</v>
-      </c>
-      <c r="E41">
-        <v>1.8</v>
-      </c>
-      <c r="F41">
-        <v>3.6</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
       </c>
       <c r="H41">
         <v>8.24</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1972,16 +1972,16 @@
         <v>3.5</v>
       </c>
       <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
       <c r="E42">
+        <v>4.5</v>
+      </c>
+      <c r="F42">
         <v>3.5</v>
-      </c>
-      <c r="F42">
-        <v>4.5</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -1998,28 +1998,28 @@
         <v>52</v>
       </c>
       <c r="B43">
+        <v>6.4</v>
+      </c>
+      <c r="C43">
+        <v>3.2</v>
+      </c>
+      <c r="D43">
+        <v>1.6</v>
+      </c>
+      <c r="E43">
+        <v>0.8</v>
+      </c>
+      <c r="F43">
+        <v>0.4</v>
+      </c>
+      <c r="G43">
         <v>0.2</v>
-      </c>
-      <c r="C43">
-        <v>0.4</v>
-      </c>
-      <c r="D43">
-        <v>0.8</v>
-      </c>
-      <c r="E43">
-        <v>1.6</v>
-      </c>
-      <c r="F43">
-        <v>3.2</v>
-      </c>
-      <c r="G43">
-        <v>6.4</v>
       </c>
       <c r="H43">
         <v>7.95</v>
       </c>
       <c r="I43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2056,28 +2056,28 @@
         <v>54</v>
       </c>
       <c r="B45">
+        <v>3.6</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3.2</v>
+      </c>
+      <c r="E45">
+        <v>1.2</v>
+      </c>
+      <c r="F45">
+        <v>2.8</v>
+      </c>
+      <c r="G45">
         <v>1.4</v>
-      </c>
-      <c r="C45">
-        <v>2.8</v>
-      </c>
-      <c r="D45">
-        <v>1.2</v>
-      </c>
-      <c r="E45">
-        <v>3.2</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>3.6</v>
       </c>
       <c r="H45">
         <v>8.2799999999999994</v>
       </c>
       <c r="I45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2088,16 +2088,16 @@
         <v>4</v>
       </c>
       <c r="C46">
+        <v>4.5</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
         <v>3.5</v>
-      </c>
-      <c r="D46">
-        <v>4.5</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
       </c>
       <c r="G46">
         <v>4.5</v>
@@ -2201,28 +2201,28 @@
         <v>59</v>
       </c>
       <c r="B50">
+        <v>4.5</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>3.5</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>2.5</v>
+      </c>
+      <c r="G50">
         <v>2</v>
-      </c>
-      <c r="C50">
-        <v>2.5</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>3.5</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50">
-        <v>4.5</v>
       </c>
       <c r="H50">
         <v>8.5399999999999991</v>
       </c>
       <c r="I50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2259,28 +2259,28 @@
         <v>61</v>
       </c>
       <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
         <v>5</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0.5</v>
       </c>
       <c r="H52">
         <v>8.4700000000000006</v>
       </c>
       <c r="I52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2288,28 +2288,28 @@
         <v>62</v>
       </c>
       <c r="B53">
+        <v>7.2</v>
+      </c>
+      <c r="C53">
+        <v>4.5</v>
+      </c>
+      <c r="D53">
+        <v>5.4</v>
+      </c>
+      <c r="E53">
+        <v>2.7</v>
+      </c>
+      <c r="F53">
+        <v>3.6</v>
+      </c>
+      <c r="G53">
         <v>1.8</v>
-      </c>
-      <c r="C53">
-        <v>3.6</v>
-      </c>
-      <c r="D53">
-        <v>2.7</v>
-      </c>
-      <c r="E53">
-        <v>5.4</v>
-      </c>
-      <c r="F53">
-        <v>4.5</v>
-      </c>
-      <c r="G53">
-        <v>7.2</v>
       </c>
       <c r="H53">
         <v>8.7100000000000009</v>
       </c>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2346,28 +2346,28 @@
         <v>64</v>
       </c>
       <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>3.5</v>
+      </c>
+      <c r="D55">
         <v>2.5</v>
       </c>
-      <c r="C55">
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
         <v>2</v>
       </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
+      <c r="G55">
         <v>2.5</v>
-      </c>
-      <c r="F55">
-        <v>3.5</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
       </c>
       <c r="H55">
         <v>8.44</v>
       </c>
       <c r="I55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2404,28 +2404,28 @@
         <v>66</v>
       </c>
       <c r="B57">
+        <v>3.5</v>
+      </c>
+      <c r="C57">
+        <v>4.2</v>
+      </c>
+      <c r="D57">
+        <v>2.1</v>
+      </c>
+      <c r="E57">
+        <v>2.8</v>
+      </c>
+      <c r="F57">
+        <v>1.4</v>
+      </c>
+      <c r="G57">
         <v>0.7</v>
-      </c>
-      <c r="C57">
-        <v>1.4</v>
-      </c>
-      <c r="D57">
-        <v>2.8</v>
-      </c>
-      <c r="E57">
-        <v>2.1</v>
-      </c>
-      <c r="F57">
-        <v>4.2</v>
-      </c>
-      <c r="G57">
-        <v>3.5</v>
       </c>
       <c r="H57">
         <v>8.16</v>
       </c>
       <c r="I57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2465,16 +2465,16 @@
         <v>2.8</v>
       </c>
       <c r="C59">
+        <v>3.4</v>
+      </c>
+      <c r="D59">
+        <v>2.6</v>
+      </c>
+      <c r="E59">
+        <v>3.2</v>
+      </c>
+      <c r="F59">
         <v>2.4</v>
-      </c>
-      <c r="D59">
-        <v>3.2</v>
-      </c>
-      <c r="E59">
-        <v>2.6</v>
-      </c>
-      <c r="F59">
-        <v>3.4</v>
       </c>
       <c r="G59">
         <v>2.8</v>
@@ -2520,28 +2520,28 @@
         <v>70</v>
       </c>
       <c r="B61">
+        <v>6.4</v>
+      </c>
+      <c r="C61">
+        <v>3.2</v>
+      </c>
+      <c r="D61">
+        <v>1.6</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>0.4</v>
+      </c>
+      <c r="G61">
         <v>0.2</v>
-      </c>
-      <c r="C61">
-        <v>0.4</v>
-      </c>
-      <c r="D61">
-        <v>0.8</v>
-      </c>
-      <c r="E61">
-        <v>1.6</v>
-      </c>
-      <c r="F61">
-        <v>3.2</v>
-      </c>
-      <c r="G61">
-        <v>6.4</v>
       </c>
       <c r="H61">
         <v>7.91</v>
       </c>
       <c r="I61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2549,28 +2549,28 @@
         <v>71</v>
       </c>
       <c r="B62">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>4.2</v>
+      </c>
+      <c r="E62">
+        <v>4.8</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
         <v>4.5</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>4.8</v>
-      </c>
-      <c r="E62">
-        <v>4.2</v>
-      </c>
-      <c r="F62">
-        <v>5</v>
-      </c>
-      <c r="G62">
-        <v>4.4000000000000004</v>
       </c>
       <c r="H62">
         <v>8.77</v>
       </c>
       <c r="I62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2607,28 +2607,28 @@
         <v>73</v>
       </c>
       <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1.8</v>
+      </c>
+      <c r="D64">
+        <v>2.8</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2.6</v>
+      </c>
+      <c r="G64">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="C64">
-        <v>2.6</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>2.8</v>
-      </c>
-      <c r="F64">
-        <v>1.8</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
       </c>
       <c r="H64">
         <v>8.61</v>
       </c>
       <c r="I64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2665,22 +2665,22 @@
         <v>75</v>
       </c>
       <c r="B66">
+        <v>3.3</v>
+      </c>
+      <c r="C66">
+        <v>3.6</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="C66">
+      <c r="E66">
+        <v>3.3</v>
+      </c>
+      <c r="F66">
         <v>2.7</v>
       </c>
-      <c r="D66">
-        <v>3.3</v>
-      </c>
-      <c r="E66">
+      <c r="G66">
         <v>3</v>
-      </c>
-      <c r="F66">
-        <v>3.6</v>
-      </c>
-      <c r="G66">
-        <v>3.3</v>
       </c>
       <c r="H66">
         <v>8.67</v>
@@ -2697,16 +2697,16 @@
         <v>1.8</v>
       </c>
       <c r="C67">
+        <v>2.1</v>
+      </c>
+      <c r="D67">
+        <v>1.8</v>
+      </c>
+      <c r="E67">
+        <v>2.4</v>
+      </c>
+      <c r="F67">
         <v>1.5</v>
-      </c>
-      <c r="D67">
-        <v>2.1</v>
-      </c>
-      <c r="E67">
-        <v>1.8</v>
-      </c>
-      <c r="F67">
-        <v>2.4</v>
       </c>
       <c r="G67">
         <v>2.1</v>
@@ -2715,7 +2715,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2723,28 +2723,28 @@
         <v>77</v>
       </c>
       <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>2.1</v>
+      </c>
+      <c r="D68">
+        <v>2.4</v>
+      </c>
+      <c r="E68">
+        <v>1.5</v>
+      </c>
+      <c r="F68">
+        <v>1.8</v>
+      </c>
+      <c r="G68">
         <v>0.9</v>
-      </c>
-      <c r="C68">
-        <v>1.8</v>
-      </c>
-      <c r="D68">
-        <v>1.5</v>
-      </c>
-      <c r="E68">
-        <v>2.4</v>
-      </c>
-      <c r="F68">
-        <v>2.1</v>
-      </c>
-      <c r="G68">
-        <v>3</v>
       </c>
       <c r="H68">
         <v>8.19</v>
       </c>
       <c r="I68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2781,22 +2781,22 @@
         <v>79</v>
       </c>
       <c r="B70">
+        <v>3.6</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>3.4</v>
+      </c>
+      <c r="E70">
+        <v>3.8</v>
+      </c>
+      <c r="F70">
+        <v>3.2</v>
+      </c>
+      <c r="G70">
         <v>3.5</v>
-      </c>
-      <c r="C70">
-        <v>3.2</v>
-      </c>
-      <c r="D70">
-        <v>3.8</v>
-      </c>
-      <c r="E70">
-        <v>3.4</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-      <c r="G70">
-        <v>3.6</v>
       </c>
       <c r="H70">
         <v>8.81</v>
@@ -2839,22 +2839,22 @@
         <v>81</v>
       </c>
       <c r="B72">
+        <v>4.3</v>
+      </c>
+      <c r="C72">
+        <v>4.8</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>4.5</v>
+      </c>
+      <c r="F72">
+        <v>3.8</v>
+      </c>
+      <c r="G72">
         <v>4.2</v>
-      </c>
-      <c r="C72">
-        <v>3.8</v>
-      </c>
-      <c r="D72">
-        <v>4.5</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>4.8</v>
-      </c>
-      <c r="G72">
-        <v>4.3</v>
       </c>
       <c r="H72">
         <v>8.8000000000000007</v>
@@ -2900,16 +2900,16 @@
         <v>2</v>
       </c>
       <c r="C74">
+        <v>2.6</v>
+      </c>
+      <c r="D74">
+        <v>1.8</v>
+      </c>
+      <c r="E74">
+        <v>2.4</v>
+      </c>
+      <c r="F74">
         <v>1.6</v>
-      </c>
-      <c r="D74">
-        <v>2.4</v>
-      </c>
-      <c r="E74">
-        <v>1.8</v>
-      </c>
-      <c r="F74">
-        <v>2.6</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2926,22 +2926,22 @@
         <v>84</v>
       </c>
       <c r="B75">
+        <v>2.6</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2.4</v>
+      </c>
+      <c r="E75">
+        <v>2.8</v>
+      </c>
+      <c r="F75">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G75">
         <v>2.5</v>
-      </c>
-      <c r="C75">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D75">
-        <v>2.8</v>
-      </c>
-      <c r="E75">
-        <v>2.4</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75">
-        <v>2.6</v>
       </c>
       <c r="H75">
         <v>8.65</v>
@@ -2973,7 +2973,7 @@
         <v>1.8</v>
       </c>
       <c r="H76">
-        <v>8.14</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="I76" t="s">
         <v>10</v>
@@ -2987,16 +2987,16 @@
         <v>3.8</v>
       </c>
       <c r="C77">
+        <v>4.3</v>
+      </c>
+      <c r="D77">
+        <v>3.6</v>
+      </c>
+      <c r="E77">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F77">
         <v>3.4</v>
-      </c>
-      <c r="D77">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E77">
-        <v>3.6</v>
-      </c>
-      <c r="F77">
-        <v>4.3</v>
       </c>
       <c r="G77">
         <v>3.8</v>
@@ -3042,22 +3042,22 @@
         <v>88</v>
       </c>
       <c r="B79">
+        <v>2.9</v>
+      </c>
+      <c r="C79">
+        <v>3.3</v>
+      </c>
+      <c r="D79">
+        <v>2.7</v>
+      </c>
+      <c r="E79">
+        <v>3.1</v>
+      </c>
+      <c r="F79">
+        <v>2.5</v>
+      </c>
+      <c r="G79">
         <v>2.8</v>
-      </c>
-      <c r="C79">
-        <v>2.5</v>
-      </c>
-      <c r="D79">
-        <v>3.1</v>
-      </c>
-      <c r="E79">
-        <v>2.7</v>
-      </c>
-      <c r="F79">
-        <v>3.3</v>
-      </c>
-      <c r="G79">
-        <v>2.9</v>
       </c>
       <c r="H79">
         <v>8.57</v>
@@ -3103,16 +3103,16 @@
         <v>1.2</v>
       </c>
       <c r="C81">
+        <v>1.5</v>
+      </c>
+      <c r="D81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E81">
+        <v>1.4</v>
+      </c>
+      <c r="F81">
         <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1.4</v>
-      </c>
-      <c r="E81">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F81">
-        <v>1.5</v>
       </c>
       <c r="G81">
         <v>1.2</v>
@@ -3132,16 +3132,16 @@
         <v>3.6</v>
       </c>
       <c r="C82">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D82">
+        <v>3.4</v>
+      </c>
+      <c r="E82">
+        <v>3.9</v>
+      </c>
+      <c r="F82">
         <v>3.2</v>
-      </c>
-      <c r="D82">
-        <v>3.9</v>
-      </c>
-      <c r="E82">
-        <v>3.4</v>
-      </c>
-      <c r="F82">
-        <v>4.0999999999999996</v>
       </c>
       <c r="G82">
         <v>3.6</v>
@@ -3187,22 +3187,22 @@
         <v>93</v>
       </c>
       <c r="B84">
+        <v>2.5</v>
+      </c>
+      <c r="C84">
+        <v>2.9</v>
+      </c>
+      <c r="D84">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E84">
+        <v>2.7</v>
+      </c>
+      <c r="F84">
+        <v>2.1</v>
+      </c>
+      <c r="G84">
         <v>2.4</v>
-      </c>
-      <c r="C84">
-        <v>2.1</v>
-      </c>
-      <c r="D84">
-        <v>2.7</v>
-      </c>
-      <c r="E84">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F84">
-        <v>2.9</v>
-      </c>
-      <c r="G84">
-        <v>2.5</v>
       </c>
       <c r="H84">
         <v>8.68</v>
@@ -3219,16 +3219,16 @@
         <v>1.5</v>
       </c>
       <c r="C85">
+        <v>1.8</v>
+      </c>
+      <c r="D85">
+        <v>1.4</v>
+      </c>
+      <c r="E85">
+        <v>1.7</v>
+      </c>
+      <c r="F85">
         <v>1.3</v>
-      </c>
-      <c r="D85">
-        <v>1.7</v>
-      </c>
-      <c r="E85">
-        <v>1.4</v>
-      </c>
-      <c r="F85">
-        <v>1.8</v>
       </c>
       <c r="G85">
         <v>1.5</v>
@@ -3248,16 +3248,16 @@
         <v>3.2</v>
       </c>
       <c r="C86">
+        <v>3.7</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>3.5</v>
+      </c>
+      <c r="F86">
         <v>2.8</v>
-      </c>
-      <c r="D86">
-        <v>3.5</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86">
-        <v>3.7</v>
       </c>
       <c r="G86">
         <v>3.2</v>
@@ -3274,22 +3274,22 @@
         <v>96</v>
       </c>
       <c r="B87">
+        <v>2.7</v>
+      </c>
+      <c r="C87">
+        <v>3.1</v>
+      </c>
+      <c r="D87">
+        <v>2.5</v>
+      </c>
+      <c r="E87">
+        <v>2.9</v>
+      </c>
+      <c r="F87">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G87">
         <v>2.6</v>
-      </c>
-      <c r="C87">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D87">
-        <v>2.9</v>
-      </c>
-      <c r="E87">
-        <v>2.5</v>
-      </c>
-      <c r="F87">
-        <v>3.1</v>
-      </c>
-      <c r="G87">
-        <v>2.7</v>
       </c>
       <c r="H87">
         <v>8.86</v>
@@ -3332,22 +3332,22 @@
         <v>98</v>
       </c>
       <c r="B89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C89">
+        <v>2.7</v>
+      </c>
+      <c r="D89">
+        <v>2.1</v>
+      </c>
+      <c r="E89">
+        <v>2.5</v>
+      </c>
+      <c r="F89">
+        <v>1.9</v>
+      </c>
+      <c r="G89">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="C89">
-        <v>1.9</v>
-      </c>
-      <c r="D89">
-        <v>2.5</v>
-      </c>
-      <c r="E89">
-        <v>2.1</v>
-      </c>
-      <c r="F89">
-        <v>2.7</v>
-      </c>
-      <c r="G89">
-        <v>2.2999999999999998</v>
       </c>
       <c r="H89">
         <v>8.6999999999999993</v>
@@ -3390,22 +3390,22 @@
         <v>100</v>
       </c>
       <c r="B91">
+        <v>3.1</v>
+      </c>
+      <c r="C91">
+        <v>3.5</v>
+      </c>
+      <c r="D91">
+        <v>2.9</v>
+      </c>
+      <c r="E91">
+        <v>3.3</v>
+      </c>
+      <c r="F91">
+        <v>2.7</v>
+      </c>
+      <c r="G91">
         <v>3</v>
-      </c>
-      <c r="C91">
-        <v>2.7</v>
-      </c>
-      <c r="D91">
-        <v>3.3</v>
-      </c>
-      <c r="E91">
-        <v>2.9</v>
-      </c>
-      <c r="F91">
-        <v>3.5</v>
-      </c>
-      <c r="G91">
-        <v>3.1</v>
       </c>
       <c r="H91">
         <v>8.94</v>
@@ -3419,22 +3419,22 @@
         <v>101</v>
       </c>
       <c r="B92">
+        <v>2.9</v>
+      </c>
+      <c r="C92">
+        <v>3.3</v>
+      </c>
+      <c r="D92">
+        <v>2.7</v>
+      </c>
+      <c r="E92">
+        <v>3.1</v>
+      </c>
+      <c r="F92">
+        <v>2.5</v>
+      </c>
+      <c r="G92">
         <v>2.8</v>
-      </c>
-      <c r="C92">
-        <v>2.5</v>
-      </c>
-      <c r="D92">
-        <v>3.1</v>
-      </c>
-      <c r="E92">
-        <v>2.7</v>
-      </c>
-      <c r="F92">
-        <v>3.3</v>
-      </c>
-      <c r="G92">
-        <v>2.9</v>
       </c>
       <c r="H92">
         <v>8.74</v>
@@ -3480,16 +3480,16 @@
         <v>2</v>
       </c>
       <c r="C94">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D94">
+        <v>1.9</v>
+      </c>
+      <c r="E94">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F94">
         <v>1.8</v>
-      </c>
-      <c r="D94">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E94">
-        <v>1.9</v>
-      </c>
-      <c r="F94">
-        <v>2.2999999999999998</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -3538,16 +3538,16 @@
         <v>1.8</v>
       </c>
       <c r="C96">
+        <v>2.1</v>
+      </c>
+      <c r="D96">
+        <v>1.7</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
         <v>1.6</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>1.7</v>
-      </c>
-      <c r="F96">
-        <v>2.1</v>
       </c>
       <c r="G96">
         <v>1.8</v>
@@ -3593,22 +3593,22 @@
         <v>107</v>
       </c>
       <c r="B98">
+        <v>2.7</v>
+      </c>
+      <c r="C98">
+        <v>3.1</v>
+      </c>
+      <c r="D98">
+        <v>2.5</v>
+      </c>
+      <c r="E98">
+        <v>2.9</v>
+      </c>
+      <c r="F98">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G98">
         <v>2.6</v>
-      </c>
-      <c r="C98">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D98">
-        <v>2.9</v>
-      </c>
-      <c r="E98">
-        <v>2.5</v>
-      </c>
-      <c r="F98">
-        <v>3.1</v>
-      </c>
-      <c r="G98">
-        <v>2.7</v>
       </c>
       <c r="H98">
         <v>8.76</v>
@@ -3651,22 +3651,22 @@
         <v>109</v>
       </c>
       <c r="B100">
+        <v>3.5</v>
+      </c>
+      <c r="C100">
+        <v>3.9</v>
+      </c>
+      <c r="D100">
+        <v>3.3</v>
+      </c>
+      <c r="E100">
+        <v>3.7</v>
+      </c>
+      <c r="F100">
+        <v>3.1</v>
+      </c>
+      <c r="G100">
         <v>3.4</v>
-      </c>
-      <c r="C100">
-        <v>3.1</v>
-      </c>
-      <c r="D100">
-        <v>3.7</v>
-      </c>
-      <c r="E100">
-        <v>3.3</v>
-      </c>
-      <c r="F100">
-        <v>3.9</v>
-      </c>
-      <c r="G100">
-        <v>3.5</v>
       </c>
       <c r="H100">
         <v>8.85</v>
@@ -3709,22 +3709,22 @@
         <v>111</v>
       </c>
       <c r="B102">
+        <v>3.7</v>
+      </c>
+      <c r="C102">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D102">
+        <v>3.5</v>
+      </c>
+      <c r="E102">
+        <v>3.9</v>
+      </c>
+      <c r="F102">
+        <v>3.3</v>
+      </c>
+      <c r="G102">
         <v>3.6</v>
-      </c>
-      <c r="C102">
-        <v>3.3</v>
-      </c>
-      <c r="D102">
-        <v>3.9</v>
-      </c>
-      <c r="E102">
-        <v>3.5</v>
-      </c>
-      <c r="F102">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G102">
-        <v>3.7</v>
       </c>
       <c r="H102">
         <v>8.89</v>
@@ -3767,22 +3767,22 @@
         <v>113</v>
       </c>
       <c r="B104">
+        <v>3.9</v>
+      </c>
+      <c r="C104">
+        <v>4.3</v>
+      </c>
+      <c r="D104">
+        <v>3.7</v>
+      </c>
+      <c r="E104">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F104">
+        <v>3.5</v>
+      </c>
+      <c r="G104">
         <v>3.8</v>
-      </c>
-      <c r="C104">
-        <v>3.5</v>
-      </c>
-      <c r="D104">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E104">
-        <v>3.7</v>
-      </c>
-      <c r="F104">
-        <v>4.3</v>
-      </c>
-      <c r="G104">
-        <v>3.9</v>
       </c>
       <c r="H104">
         <v>8.91</v>
@@ -3825,22 +3825,22 @@
         <v>115</v>
       </c>
       <c r="B106">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C106">
+        <v>4.5</v>
+      </c>
+      <c r="D106">
+        <v>3.9</v>
+      </c>
+      <c r="E106">
+        <v>4.3</v>
+      </c>
+      <c r="F106">
+        <v>3.7</v>
+      </c>
+      <c r="G106">
         <v>4</v>
-      </c>
-      <c r="C106">
-        <v>3.7</v>
-      </c>
-      <c r="D106">
-        <v>4.3</v>
-      </c>
-      <c r="E106">
-        <v>3.9</v>
-      </c>
-      <c r="F106">
-        <v>4.5</v>
-      </c>
-      <c r="G106">
-        <v>4.0999999999999996</v>
       </c>
       <c r="H106">
         <v>8.93</v>
@@ -3883,22 +3883,22 @@
         <v>117</v>
       </c>
       <c r="B108">
+        <v>4.3</v>
+      </c>
+      <c r="C108">
+        <v>4.7</v>
+      </c>
+      <c r="D108">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E108">
+        <v>4.5</v>
+      </c>
+      <c r="F108">
+        <v>3.9</v>
+      </c>
+      <c r="G108">
         <v>4.2</v>
-      </c>
-      <c r="C108">
-        <v>3.9</v>
-      </c>
-      <c r="D108">
-        <v>4.5</v>
-      </c>
-      <c r="E108">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F108">
-        <v>4.7</v>
-      </c>
-      <c r="G108">
-        <v>4.3</v>
       </c>
       <c r="H108">
         <v>8.9499999999999993</v>
